--- a/annotations/annotations_test_ada.xlsx
+++ b/annotations/annotations_test_ada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z_har\Documents\GitHub\drums-with-lms\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88C10B-BD79-4AA7-B06E-14F7394F8031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C1361-16A0-4B5C-8618-72AC650894CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280FD614-83C0-409C-9538-0F76FCA773E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{280FD614-83C0-409C-9538-0F76FCA773E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Chaotic</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -542,20 +548,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79148FB2-042C-43A1-B866-EA29ACE0F30B}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -598,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -609,7 +615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -626,7 +632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -640,7 +646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -654,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -668,7 +674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -682,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -696,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -704,16 +710,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -730,7 +733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -747,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -761,7 +764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -778,196 +781,310 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
